--- a/MyRevitAddins/MEPUtils/Insulation.xlsx
+++ b/MyRevitAddins/MEPUtils/Insulation.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>BK</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>System</t>
+  </si>
+  <si>
+    <t>Isover Tapelock Rørskål</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,13 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -486,6 +492,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
       <c r="C2" s="1">
         <v>20</v>
       </c>
@@ -533,6 +542,9 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
       <c r="C3" s="1">
         <v>20</v>
       </c>
@@ -580,6 +592,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
       <c r="C4" s="1">
         <v>20</v>
       </c>
@@ -627,6 +642,9 @@
       <c r="A5" t="s">
         <v>2</v>
       </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" s="1">
         <v>30</v>
       </c>
@@ -674,6 +692,9 @@
       <c r="A6" t="s">
         <v>3</v>
       </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="1">
         <v>20</v>
       </c>
@@ -721,6 +742,9 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" s="1">
         <v>20</v>
       </c>
@@ -768,6 +792,9 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="1">
         <v>20</v>
       </c>
@@ -815,6 +842,9 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="1">
         <v>20</v>
       </c>
@@ -862,6 +892,9 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
       <c r="C10" s="1">
         <v>20</v>
       </c>
@@ -909,6 +942,9 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
       <c r="C11" s="1">
         <v>20</v>
       </c>
@@ -956,6 +992,9 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
       <c r="C12" s="1">
         <v>20</v>
       </c>
@@ -1003,6 +1042,9 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
       <c r="C13" s="1">
         <v>20</v>
       </c>
@@ -1050,6 +1092,9 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
       <c r="C14" s="1">
         <v>20</v>
       </c>
@@ -1096,6 +1141,9 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>20</v>

--- a/MyRevitAddins/MEPUtils/Insulation.xlsx
+++ b/MyRevitAddins/MEPUtils/Insulation.xlsx
@@ -112,7 +112,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,19 +430,21 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1">
@@ -489,10 +491,10 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1">
@@ -539,10 +541,10 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="1">
@@ -589,10 +591,10 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="1">
@@ -639,10 +641,10 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="1">
@@ -689,10 +691,10 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1">
@@ -739,10 +741,10 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="1">
@@ -789,10 +791,10 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="1">
@@ -839,10 +841,10 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1">
@@ -889,10 +891,10 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1">
@@ -939,10 +941,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1">
@@ -989,10 +991,10 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1">
@@ -1039,10 +1041,10 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1">
@@ -1089,10 +1091,10 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1">
@@ -1139,10 +1141,10 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="1">

--- a/MyRevitAddins/MEPUtils/Insulation.xlsx
+++ b/MyRevitAddins/MEPUtils/Insulation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MyRevitAddins\MyRevitAddins\MEPUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Github\MyRevitAddins\MyRevitAddins\MEPUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
   <si>
     <t>BK</t>
   </si>
@@ -74,7 +74,19 @@
     <t>System</t>
   </si>
   <si>
-    <t>Isover Tapelock Rørskål</t>
+    <t>60</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Rørisolering</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>400</t>
   </si>
 </sst>
 </file>
@@ -427,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="R2" sqref="R2:R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +452,7 @@
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -489,13 +501,19 @@
       <c r="P1" s="1">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -539,13 +557,19 @@
       <c r="P2" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1">
         <v>20</v>
@@ -565,14 +589,14 @@
       <c r="H3" s="1">
         <v>30</v>
       </c>
-      <c r="I3" s="1">
-        <v>40</v>
-      </c>
-      <c r="J3" s="1">
-        <v>40</v>
-      </c>
-      <c r="K3" s="1">
-        <v>110</v>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L3" s="1">
         <v>110</v>
@@ -589,13 +613,19 @@
       <c r="P3" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1">
+        <v>110</v>
+      </c>
+      <c r="R3" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -615,14 +645,14 @@
       <c r="H4" s="1">
         <v>30</v>
       </c>
-      <c r="I4" s="1">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1">
-        <v>40</v>
-      </c>
-      <c r="K4" s="1">
-        <v>110</v>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L4" s="1">
         <v>110</v>
@@ -639,13 +669,19 @@
       <c r="P4" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="1">
+        <v>110</v>
+      </c>
+      <c r="R4" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>30</v>
@@ -668,11 +704,11 @@
       <c r="I5" s="1">
         <v>50</v>
       </c>
-      <c r="J5" s="1">
-        <v>50</v>
-      </c>
-      <c r="K5" s="1">
-        <v>110</v>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="L5" s="1">
         <v>110</v>
@@ -689,13 +725,19 @@
       <c r="P5" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="1">
+        <v>110</v>
+      </c>
+      <c r="R5" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
         <v>20</v>
@@ -718,11 +760,11 @@
       <c r="I6" s="1">
         <v>50</v>
       </c>
-      <c r="J6" s="1">
-        <v>50</v>
-      </c>
-      <c r="K6" s="1">
-        <v>110</v>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="L6" s="1">
         <v>110</v>
@@ -739,13 +781,19 @@
       <c r="P6" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="1">
+        <v>110</v>
+      </c>
+      <c r="R6" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>20</v>
@@ -768,11 +816,11 @@
       <c r="I7" s="1">
         <v>40</v>
       </c>
-      <c r="J7" s="1">
-        <v>40</v>
-      </c>
-      <c r="K7" s="1">
-        <v>110</v>
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L7" s="1">
         <v>110</v>
@@ -789,13 +837,19 @@
       <c r="P7" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="1">
+        <v>110</v>
+      </c>
+      <c r="R7" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1">
         <v>20</v>
@@ -818,11 +872,11 @@
       <c r="I8" s="1">
         <v>40</v>
       </c>
-      <c r="J8" s="1">
-        <v>40</v>
-      </c>
-      <c r="K8" s="1">
-        <v>110</v>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L8" s="1">
         <v>110</v>
@@ -839,13 +893,19 @@
       <c r="P8" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="1">
+        <v>110</v>
+      </c>
+      <c r="R8" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <v>20</v>
@@ -868,11 +928,11 @@
       <c r="I9" s="1">
         <v>40</v>
       </c>
-      <c r="J9" s="1">
-        <v>40</v>
-      </c>
-      <c r="K9" s="1">
-        <v>110</v>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L9" s="1">
         <v>110</v>
@@ -889,13 +949,19 @@
       <c r="P9" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="1">
+        <v>110</v>
+      </c>
+      <c r="R9" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <v>20</v>
@@ -918,11 +984,11 @@
       <c r="I10" s="1">
         <v>40</v>
       </c>
-      <c r="J10" s="1">
-        <v>40</v>
-      </c>
-      <c r="K10" s="1">
-        <v>110</v>
+      <c r="J10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L10" s="1">
         <v>110</v>
@@ -939,13 +1005,19 @@
       <c r="P10" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="1">
+        <v>110</v>
+      </c>
+      <c r="R10" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>20</v>
@@ -968,11 +1040,11 @@
       <c r="I11" s="1">
         <v>40</v>
       </c>
-      <c r="J11" s="1">
-        <v>40</v>
-      </c>
-      <c r="K11" s="1">
-        <v>110</v>
+      <c r="J11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L11" s="1">
         <v>110</v>
@@ -989,13 +1061,19 @@
       <c r="P11" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="1">
+        <v>110</v>
+      </c>
+      <c r="R11" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <v>20</v>
@@ -1018,11 +1096,11 @@
       <c r="I12" s="1">
         <v>40</v>
       </c>
-      <c r="J12" s="1">
-        <v>40</v>
-      </c>
-      <c r="K12" s="1">
-        <v>110</v>
+      <c r="J12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L12" s="1">
         <v>110</v>
@@ -1039,13 +1117,19 @@
       <c r="P12" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="1">
+        <v>110</v>
+      </c>
+      <c r="R12" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
@@ -1068,11 +1152,11 @@
       <c r="I13" s="1">
         <v>40</v>
       </c>
-      <c r="J13" s="1">
-        <v>40</v>
-      </c>
-      <c r="K13" s="1">
-        <v>110</v>
+      <c r="J13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L13" s="1">
         <v>110</v>
@@ -1089,13 +1173,19 @@
       <c r="P13" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="1">
+        <v>110</v>
+      </c>
+      <c r="R13" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
@@ -1118,11 +1208,11 @@
       <c r="I14" s="1">
         <v>40</v>
       </c>
-      <c r="J14" s="1">
-        <v>40</v>
-      </c>
-      <c r="K14" s="1">
-        <v>110</v>
+      <c r="J14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L14" s="1">
         <v>110</v>
@@ -1139,13 +1229,19 @@
       <c r="P14" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" s="1">
+        <v>110</v>
+      </c>
+      <c r="R14" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <v>20</v>
@@ -1168,11 +1264,11 @@
       <c r="I15" s="1">
         <v>40</v>
       </c>
-      <c r="J15" s="1">
-        <v>40</v>
-      </c>
-      <c r="K15" s="1">
-        <v>110</v>
+      <c r="J15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="L15" s="1">
         <v>110</v>
@@ -1187,6 +1283,12 @@
         <v>110</v>
       </c>
       <c r="P15" s="1">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>110</v>
+      </c>
+      <c r="R15" s="1">
         <v>110</v>
       </c>
     </row>
